--- a/biology/Médecine/Vivalto_Santé/Vivalto_Santé.xlsx
+++ b/biology/Médecine/Vivalto_Santé/Vivalto_Santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vivalto_Sant%C3%A9</t>
+          <t>Vivalto_Santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Vivalto Santé est un groupe de cliniques privées qui rassemble 100 établissements, répartis : 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vivalto_Sant%C3%A9</t>
+          <t>Vivalto_Santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,26 +526,21 @@
           <t>Historique[2],[3],[4]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Vivalto Santé naît en 2009 de l’entrée de la société d’investissement Vivalto, accompagnée d’investisseurs comme BNP Paribas Développement et Crédit Mutuel Arkéa, au capital du Groupe Cliniques Privées Associées, regroupant 3 établissements privés bretons (la Clinique Pasteur-Lanroze de Brest, la Clinique de la Côte d’Émeraude à Saint-Malo et le Centre Hospitalier Privé Saint-Grégoire).
-Jusque 2013, Vivalto Santé opère un développement essentiellement basé dans l’ouest de la France, avant de s’étendre vers d’autres régions comme la Normandie, l’Île-de-France et la région Auvergne-Rhône-Alpes[3].
-En 2018, le groupe Vivalto Santé acquiert le Groupe Mathilde Médical Développement[5].
-En 2020, l’entreprise se renforce dans le nord de la France en faisant l'acquisition du Groupe des Hôpitaux Privés du Littoral, puis en Bourgogne-Franche-Comté avec le Groupe Dracy Santé[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vivalto Santé naît en 2009 de l’entrée de la société d’investissement Vivalto, accompagnée d’investisseurs comme BNP Paribas Développement et Crédit Mutuel Arkéa, au capital du Groupe Cliniques Privées Associées, regroupant 3 établissements privés bretons (la Clinique Pasteur-Lanroze de Brest, la Clinique de la Côte d’Émeraude à Saint-Malo et le Centre Hospitalier Privé Saint-Grégoire).
+Jusque 2013, Vivalto Santé opère un développement essentiellement basé dans l’ouest de la France, avant de s’étendre vers d’autres régions comme la Normandie, l’Île-de-France et la région Auvergne-Rhône-Alpes.
+En 2018, le groupe Vivalto Santé acquiert le Groupe Mathilde Médical Développement.
+En 2020, l’entreprise se renforce dans le nord de la France en faisant l'acquisition du Groupe des Hôpitaux Privés du Littoral, puis en Bourgogne-Franche-Comté avec le Groupe Dracy Santé.
 En 2021, Vivalto Santé porte à 49 le nombre de ses établissements de santé, en faisant l'acquisition notamment de la Clinique du sport de Bordeaux-Mérignac ainsi que plusieurs structures en région Bourgogne-Franche-Comté, Hauts-de-France et Provence-Alpes-Côte d’Azur.
-En 2022, le Groupe prend une dimension européenne en s’implantant dans 5 pays (Suisse, Portugal, Espagne, Slovaquie et République Tchèque), doublant ainsi la taille de son activité. Au Portugal, Vivalto Santé acquiert le groupe Lusíadas Saúde; en Espagne, en Slovaquie et en République Tchèque, le groupe Ribera Salud et en Suisse, le groupe CIC.[6] 
-En 2024, Vivalto Santé augmente son capital de 65 M€ et poursuit sa stratégie de croissance en France avec l'acquisition de 3 nouveaux établissements en Indre et Loire et dans la Sarthe[7].
+En 2022, le Groupe prend une dimension européenne en s’implantant dans 5 pays (Suisse, Portugal, Espagne, Slovaquie et République Tchèque), doublant ainsi la taille de son activité. Au Portugal, Vivalto Santé acquiert le groupe Lusíadas Saúde; en Espagne, en Slovaquie et en République Tchèque, le groupe Ribera Salud et en Suisse, le groupe CIC. 
+En 2024, Vivalto Santé augmente son capital de 65 M€ et poursuit sa stratégie de croissance en France avec l'acquisition de 3 nouveaux établissements en Indre et Loire et dans la Sarthe.
 D’autre part, Vivalto Santé continue de développer des services de Soins Urgents. Ces unités proposent des consultations médicales sans prise de rendez-vous préalable. Il s’agit d’une prise en charge ne relevant pas de l’urgence vitale mais ne pouvant être ni anticipée, ni retardée.
 À ce jour, 14 établissements du groupe Vivalto Santé proposent un service de Soins Urgents : à Saint-Malo (35), Morlaix (29), Pontivy (56), Avranches (50), Vire Normandie (14), Saint-Aubin-sur-Scie (76), Coquelles (62), Saint-Martin-Boulogne (62), Mantes-la-Jolie (78), Saint-Germain-en-Laye (78), Cholet (49), Angoulême (16) et Bois-Guillaume (76), Le Port-Marly (78).
 Au 31 décembre 2022, le Groupe est détenu à 65% par des investisseurs privés, à 32% par plus de 1000 praticiens et à 3% par plus de 3200 salariés et managers du groupe.
-Identité visuelle
-			Logo Vivalto Santé de 2009 à 2013
-			Logo Vivalto Santé de 2013 à 2022
-			Logo Vivalto Santé depuis 2022
-Slogan
-De 2009 à 2013 : Au service de chacun pour la santé de tous.
-De 2013 à 2022 : Engagés pour votre santé.
-Depuis 2022 : Entre nous, la vie.</t>
+</t>
         </is>
       </c>
     </row>
@@ -543,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vivalto_Sant%C3%A9</t>
+          <t>Vivalto_Santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,13 +565,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique[2],[3],[4]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Identité visuelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Logo Vivalto Santé de 2009 à 2013
+			Logo Vivalto Santé de 2013 à 2022
+			Logo Vivalto Santé depuis 2022
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vivalto_Santé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vivalto_Sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique[2],[3],[4]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Slogan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>De 2009 à 2013 : Au service de chacun pour la santé de tous.
+De 2013 à 2022 : Engagés pour votre santé.
+Depuis 2022 : Entre nous, la vie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vivalto_Santé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vivalto_Sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Gouvernance de l’entreprise[8],[9]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La Troisième Voie : Un modèle de co-gouvernance et d’actionnariat[9].
-Dès sa création, le Groupe Vivalto Santé s’est singularisé des autres acteurs hospitaliers avec son modèle de co-gouvernance managers/praticiens[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Troisième Voie : Un modèle de co-gouvernance et d’actionnariat.
+Dès sa création, le Groupe Vivalto Santé s’est singularisé des autres acteurs hospitaliers avec son modèle de co-gouvernance managers/praticiens.
 Cette co-gouvernance est mise en place à chaque niveau de décision : établissement - territoire - groupe.
 Quant au Conseil de Surveillance, plus haute instance de gouvernance du Groupe, présidé par Daniel Caille, on retrouve ce principe de co-gouvernance avec onze membres dont cinq praticiens actionnaires et six représentants des actionnaires institutionnels.
 Le Président fondateur du Groupe est :
@@ -574,69 +661,73 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Vivalto_Sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vivalto_Santé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Vivalto_Sant%C3%A9</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Entreprise à mission[10],[11],[12]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2020 le Groupe Vivalto santé prend la décision de devenir une Entreprise à mission, au sens de la Loi PACTE. Le Groupe inscrit alors dans ses statut la raison d’être suivante : "Notre mission, au service de tous et de façon durable, est de soigner et d’accompagner les patients tout au long de leur parcours de soins et de leur vie. Elle est fondée sur un partenariat innovant avec les médecins, et un engagement fort des femmes et des hommes du Groupe, ."
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Vivalto_Sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vivalto_Santé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Vivalto_Sant%C3%A9</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Distinctions[13],[14],[15],[16],[17],[18]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">De 2009 à 2018, le Centre Hospitalier Privé Saint-Grégoire, appartenant au groupe Vivalto Santé, se positionne en tête du palmarès des cliniques de France établi par le magazine Le Point. Il apparaît les trois années suivantes en 3ème place du classement.
-L’Hôpital Privé du Confluent de Nantes, appartenant également à Vivalto Santé, apparaît quant à lui à la deuxième place du classement de 2009 à 2018, puis à la 3e en 2018, 4e en 2019 et à la 8ème place en 2020[16].
-Le groupe Vivalto Santé a obtenu le prix de la Meilleure Croissance Externe dans le cadre du Private Equity Exchange &amp; Awards 2019[19]. Les critères suivants ont été pris en considération : le nombre et la valeur des acquisitions, la stratégie de croissance, le chiffre d’affaires et l’évolution de l’EBITDA.
-En janvier 2019, la Direction des Systèmes d'Information (DSI) de Vivalto Santé a obtenu la certification Hébergeur de Données de Santé (HDS)[20] en sus de la Certification ISO 27001[14].
+L’Hôpital Privé du Confluent de Nantes, appartenant également à Vivalto Santé, apparaît quant à lui à la deuxième place du classement de 2009 à 2018, puis à la 3e en 2018, 4e en 2019 et à la 8ème place en 2020.
+Le groupe Vivalto Santé a obtenu le prix de la Meilleure Croissance Externe dans le cadre du Private Equity Exchange &amp; Awards 2019. Les critères suivants ont été pris en considération : le nombre et la valeur des acquisitions, la stratégie de croissance, le chiffre d’affaires et l’évolution de l’EBITDA.
+En janvier 2019, la Direction des Systèmes d'Information (DSI) de Vivalto Santé a obtenu la certification Hébergeur de Données de Santé (HDS) en sus de la Certification ISO 27001.
 Les Trophées de la Fédération de l'Hospitalisation Privée (FHP) 2020 ont récompensé la Polyclinique Lyon Nord, à Rillieux-la-Pape (69), qui remporte la première place exæquo pour son projet « Collaboration et prise en charge innovante au service du suivi des patients Covid19 ».
-Les Trophées de la FHP 2022 ont distingué le Centre Hospitalier Privé Brest Pasteur dans la catégorie « Attractivité et promotion des métiers »[21] pour son projet DASKEMM (= évolution en breton). Un projet global d’intégration et d’évolution professionnelle avec une vision du projet incluant une dimension culturelle.
+Les Trophées de la FHP 2022 ont distingué le Centre Hospitalier Privé Brest Pasteur dans la catégorie « Attractivité et promotion des métiers » pour son projet DASKEMM (= évolution en breton). Un projet global d’intégration et d’évolution professionnelle avec une vision du projet incluant une dimension culturelle.
 </t>
         </is>
       </c>
